--- a/吉田/クイズ画面設計.xlsx
+++ b/吉田/クイズ画面設計.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\吉田ソフト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysdnb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCFAFCE-3427-40B2-97DC-4B15A3D28278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="2" r:id="rId1"/>
     <sheet name="基本アーキテクチャ図" sheetId="7" r:id="rId2"/>
-    <sheet name="STEP２画面遷移図（修正前）" sheetId="6" state="hidden" r:id="rId3"/>
-    <sheet name="基本アーキテクチャ図（修正前）" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="STEP1画面" sheetId="1" state="hidden" r:id="rId5"/>
+    <sheet name="基本アーキテクチャ図 (修正)" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="STEP２画面遷移図（修正前）" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="基本アーキテクチャ図（修正前）" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="STEP1画面" sheetId="1" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>A</t>
     <phoneticPr fontId="2"/>
@@ -411,12 +414,214 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クラス</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　・変数名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Q→text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に変更</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　・変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を追加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　・変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>String ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を初期値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>”a”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で追加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　・各変数について</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>setter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の追加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>QuestionDAO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クラス</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行目修正</t>
+    </r>
+  </si>
+  <si>
+    <t>　・</t>
+  </si>
+  <si>
+    <t>TopServlet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Show</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +675,25 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -607,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +917,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -745,7 +978,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="フレーム 13"/>
+        <xdr:cNvPr id="14" name="フレーム 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -817,7 +1056,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -868,7 +1113,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -919,7 +1170,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -970,20 +1227,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="117" name="グループ化 116"/>
+        <xdr:cNvPr id="117" name="グループ化 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="115241" y="5756561"/>
-          <a:ext cx="5486400" cy="3444240"/>
+          <a:off x="115241" y="6197433"/>
+          <a:ext cx="6123214" cy="3729990"/>
           <a:chOff x="1197429" y="8171904"/>
           <a:chExt cx="5486400" cy="3543300"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1178,7 +1447,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1245,7 +1520,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+          <xdr:cNvPr id="50" name="正方形/長方形 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1312,7 +1593,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+          <xdr:cNvPr id="51" name="正方形/長方形 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1379,7 +1666,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+          <xdr:cNvPr id="52" name="正方形/長方形 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1462,20 +1755,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="124" name="グループ化 123"/>
+        <xdr:cNvPr id="124" name="グループ化 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="115241" y="602325"/>
-          <a:ext cx="5486400" cy="3422072"/>
+          <a:off x="115241" y="643147"/>
+          <a:ext cx="6123214" cy="3686050"/>
           <a:chOff x="1944041" y="1276250"/>
           <a:chExt cx="5486400" cy="3491345"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ化 18"/>
+          <xdr:cNvPr id="19" name="グループ化 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1488,7 +1793,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="5" name="グループ化 4"/>
+            <xdr:cNvPr id="5" name="グループ化 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -1501,7 +1812,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+              <xdr:cNvPr id="2" name="正方形/長方形 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1648,7 +1965,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="3" name="四角形吹き出し 2"/>
+              <xdr:cNvPr id="3" name="四角形吹き出し 2">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1701,7 +2024,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="フレーム 19"/>
+              <xdr:cNvPr id="20" name="フレーム 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1758,7 +2087,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="フレーム 20"/>
+              <xdr:cNvPr id="21" name="フレーム 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1836,7 +2171,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="フレーム 21"/>
+              <xdr:cNvPr id="22" name="フレーム 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1893,7 +2234,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="フレーム 22"/>
+              <xdr:cNvPr id="23" name="フレーム 22">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1950,7 +2297,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="24" name="フレーム 23"/>
+              <xdr:cNvPr id="24" name="フレーム 23">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2020,7 +2373,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="25" name="フレーム 24"/>
+              <xdr:cNvPr id="25" name="フレーム 24">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2082,7 +2441,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="26" name="フレーム 25"/>
+              <xdr:cNvPr id="26" name="フレーム 25">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2148,7 +2513,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="16" name="グループ化 15"/>
+            <xdr:cNvPr id="16" name="グループ化 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -2161,7 +2532,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="13" name="グループ化 12"/>
+              <xdr:cNvPr id="13" name="グループ化 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -2174,7 +2551,13 @@
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="54" name="円/楕円 53"/>
+                <xdr:cNvPr id="54" name="円/楕円 53">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2230,7 +2613,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+                <xdr:cNvPr id="53" name="正方形/長方形 52">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2286,7 +2675,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+                <xdr:cNvPr id="11" name="正方形/長方形 10">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2342,7 +2737,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="12" name="円/楕円 11"/>
+                <xdr:cNvPr id="12" name="円/楕円 11">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2398,7 +2799,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+                <xdr:cNvPr id="55" name="正方形/長方形 54">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2454,7 +2861,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="57" name="円/楕円 56"/>
+                <xdr:cNvPr id="57" name="円/楕円 56">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2510,7 +2923,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+                <xdr:cNvPr id="59" name="正方形/長方形 58">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2566,7 +2985,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="10" name="角丸四角形 9"/>
+                <xdr:cNvPr id="10" name="角丸四角形 9">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2624,7 +3049,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="9" name="円/楕円 8"/>
+                <xdr:cNvPr id="9" name="円/楕円 8">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -2681,7 +3112,13 @@
           </xdr:grpSp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="15" name="スマイル 14"/>
+              <xdr:cNvPr id="15" name="スマイル 14">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2739,7 +3176,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="テキスト ボックス 111"/>
+          <xdr:cNvPr id="112" name="テキスト ボックス 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2804,20 +3247,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="120" name="グループ化 119"/>
+        <xdr:cNvPr id="120" name="グループ化 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8160723" y="599900"/>
-          <a:ext cx="5486400" cy="3428307"/>
+          <a:off x="9080566" y="640722"/>
+          <a:ext cx="6123214" cy="3692285"/>
           <a:chOff x="8642169" y="1557744"/>
           <a:chExt cx="5486400" cy="3528060"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+          <xdr:cNvPr id="114" name="正方形/長方形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2956,7 +3411,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="正方形/長方形 115"/>
+          <xdr:cNvPr id="116" name="正方形/長方形 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3023,7 +3484,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+          <xdr:cNvPr id="118" name="正方形/長方形 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3084,7 +3551,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="テキスト ボックス 122"/>
+        <xdr:cNvPr id="123" name="テキスト ボックス 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3148,7 +3621,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="テキスト ボックス 124"/>
+        <xdr:cNvPr id="125" name="テキスト ボックス 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3212,7 +3691,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="テキスト ボックス 125"/>
+        <xdr:cNvPr id="126" name="テキスト ボックス 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3276,7 +3761,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="テキスト ボックス 126"/>
+        <xdr:cNvPr id="127" name="テキスト ボックス 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3340,7 +3831,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3391,7 +3888,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="テキスト ボックス 129"/>
+        <xdr:cNvPr id="130" name="テキスト ボックス 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3455,7 +3958,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線矢印コネクタ 130"/>
+        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3506,7 +4015,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
+        <xdr:cNvPr id="136" name="テキスト ボックス 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3570,7 +4085,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="137" name="直線矢印コネクタ 136"/>
+        <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3621,7 +4142,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="テキスト ボックス 139"/>
+        <xdr:cNvPr id="140" name="テキスト ボックス 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3685,7 +4212,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="141" name="直線矢印コネクタ 140"/>
+        <xdr:cNvPr id="141" name="直線矢印コネクタ 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3736,7 +4269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3800,7 +4339,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="直線矢印コネクタ 143"/>
+        <xdr:cNvPr id="144" name="直線矢印コネクタ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3851,7 +4396,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="テキスト ボックス 144"/>
+        <xdr:cNvPr id="145" name="テキスト ボックス 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3919,20 +4470,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8160723" y="5756561"/>
-          <a:ext cx="5486400" cy="3444240"/>
+          <a:off x="9080566" y="6197433"/>
+          <a:ext cx="6123214" cy="3729990"/>
           <a:chOff x="8160723" y="5756561"/>
           <a:chExt cx="5486400" cy="3444240"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="121" name="グループ化 120"/>
+          <xdr:cNvPr id="121" name="グループ化 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3945,7 +4508,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+            <xdr:cNvPr id="69" name="正方形/長方形 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4135,7 +4704,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+            <xdr:cNvPr id="90" name="正方形/長方形 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4185,7 +4760,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="98" name="グループ化 97"/>
+            <xdr:cNvPr id="98" name="グループ化 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -4198,7 +4779,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="99" name="グループ化 98"/>
+              <xdr:cNvPr id="99" name="グループ化 98">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -4211,7 +4798,13 @@
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="101" name="円/楕円 100"/>
+                <xdr:cNvPr id="101" name="円/楕円 100">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4267,7 +4860,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+                <xdr:cNvPr id="102" name="正方形/長方形 101">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4323,7 +4922,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+                <xdr:cNvPr id="103" name="正方形/長方形 102">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4379,7 +4984,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="104" name="円/楕円 103"/>
+                <xdr:cNvPr id="104" name="円/楕円 103">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4435,7 +5046,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+                <xdr:cNvPr id="105" name="正方形/長方形 104">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4491,7 +5108,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="106" name="円/楕円 105"/>
+                <xdr:cNvPr id="106" name="円/楕円 105">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4547,7 +5170,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+                <xdr:cNvPr id="107" name="正方形/長方形 106">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4603,7 +5232,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="108" name="角丸四角形 107"/>
+                <xdr:cNvPr id="108" name="角丸四角形 107">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4661,7 +5296,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="109" name="円/楕円 108"/>
+                <xdr:cNvPr id="109" name="円/楕円 108">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -4718,7 +5359,13 @@
           </xdr:grpSp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="100" name="スマイル 99"/>
+              <xdr:cNvPr id="100" name="スマイル 99">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4776,7 +5423,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
+          <xdr:cNvPr id="70" name="テキスト ボックス 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4844,7 +5497,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="図 75"/>
+        <xdr:cNvPr id="76" name="図 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4891,7 +5550,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4955,7 +5620,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5019,7 +5690,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5083,7 +5760,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="テキスト ボックス 58"/>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5147,7 +5830,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="70" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -5200,7 +5889,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5264,7 +5959,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5315,7 +6016,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="テキスト ボックス 66"/>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5380,7 +6087,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直線矢印コネクタ 67"/>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5431,7 +6144,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="テキスト ボックス 68"/>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5499,7 +6218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5563,7 +6288,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="70" idx="2"/>
           <a:endCxn id="73" idx="0"/>
@@ -5617,7 +6348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="テキスト ボックス 72"/>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5681,7 +6418,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5745,7 +6488,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5796,7 +6545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="テキスト ボックス 82"/>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5860,7 +6615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5924,7 +6685,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="フローチャート: 磁気ディスク 84"/>
+        <xdr:cNvPr id="85" name="フローチャート: 磁気ディスク 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6033,7 +6800,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="73" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -6086,7 +6859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="テキスト ボックス 90"/>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6258,7 +7037,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="テキスト ボックス 91"/>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6418,7 +7203,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6482,7 +7273,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="テキスト ボックス 95"/>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6546,7 +7343,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線矢印コネクタ 96"/>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6597,7 +7400,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6648,7 +7457,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="テキスト ボックス 100"/>
+        <xdr:cNvPr id="101" name="テキスト ボックス 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6720,7 +7535,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6795,7 +7616,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="直線矢印コネクタ 104"/>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6846,7 +7673,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6897,7 +7730,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6948,7 +7787,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="直線矢印コネクタ 113"/>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6999,7 +7844,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="テキスト ボックス 116"/>
+        <xdr:cNvPr id="117" name="テキスト ボックス 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7071,7 +7922,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="テキスト ボックス 117"/>
+        <xdr:cNvPr id="118" name="テキスト ボックス 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7143,7 +8000,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="直線矢印コネクタ 118"/>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7195,7 +8058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="テキスト ボックス 121"/>
+        <xdr:cNvPr id="122" name="テキスト ボックス 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7264,7 +8133,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="テキスト ボックス 123"/>
+        <xdr:cNvPr id="124" name="テキスト ボックス 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7337,7 +8212,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="テキスト ボックス 124"/>
+        <xdr:cNvPr id="125" name="テキスト ボックス 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7409,7 +8290,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="テキスト ボックス 125"/>
+        <xdr:cNvPr id="126" name="テキスト ボックス 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7482,7 +8369,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="テキスト ボックス 126"/>
+        <xdr:cNvPr id="127" name="テキスト ボックス 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7558,7 +8451,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="直線矢印コネクタ 128"/>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7609,7 +8508,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="127" idx="0"/>
           <a:endCxn id="126" idx="2"/>
@@ -7663,7 +8568,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="直線矢印コネクタ 133"/>
+        <xdr:cNvPr id="134" name="直線矢印コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7714,7 +8625,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7765,7 +8682,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="142" name="直線矢印コネクタ 141"/>
+        <xdr:cNvPr id="142" name="直線矢印コネクタ 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7816,7 +8739,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="直線矢印コネクタ 142"/>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7867,7 +8796,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7919,7 +8854,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="テキスト ボックス 99"/>
+        <xdr:cNvPr id="100" name="テキスト ボックス 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7982,7 +8923,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="図 103"/>
+        <xdr:cNvPr id="104" name="図 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8029,7 +8976,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="図 105"/>
+        <xdr:cNvPr id="106" name="図 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8076,7 +9029,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="図 108"/>
+        <xdr:cNvPr id="109" name="図 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8123,7 +9082,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="直線矢印コネクタ 112"/>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8174,7 +9139,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="0"/>
           <a:endCxn id="96" idx="2"/>
@@ -8228,7 +9199,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -8281,7 +9258,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線矢印コネクタ 130"/>
+        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8332,7 +9315,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="テキスト ボックス 89"/>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8480,7 +9469,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8531,7 +9526,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="直線矢印コネクタ 134"/>
+        <xdr:cNvPr id="135" name="直線矢印コネクタ 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8585,7 +9586,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="直線矢印コネクタ 137"/>
+        <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8639,7 +9646,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="テキスト ボックス 151"/>
+        <xdr:cNvPr id="152" name="テキスト ボックス 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8702,7 +9715,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
+        <xdr:cNvPr id="153" name="テキスト ボックス 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8797,7 +9816,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="テキスト ボックス 153"/>
+        <xdr:cNvPr id="154" name="テキスト ボックス 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8862,7 +9887,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="テキスト ボックス 155"/>
+        <xdr:cNvPr id="156" name="テキスト ボックス 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8915,7 +9946,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>a,b,c,d</a:t>
+            <a:t>ans=a,b,c,d</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8945,7 +9976,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="テキスト ボックス 156"/>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9030,6 +10067,4889 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64769</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11151</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11647169" y="6379347"/>
+          <a:ext cx="3603982" cy="2231254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297328</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556408</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564528" y="789717"/>
+          <a:ext cx="868680" cy="288700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トップ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297328</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556408</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564528" y="6090467"/>
+          <a:ext cx="868680" cy="288700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>出題画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>338892</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>597972</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11921292" y="6090467"/>
+          <a:ext cx="868680" cy="288700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>正誤画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>338891</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180108</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11921291" y="822960"/>
+          <a:ext cx="1060417" cy="269312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リザルト画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274122</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1395</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5760522" y="3432958"/>
+          <a:ext cx="2969" cy="1003277"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>412667</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>110253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26966</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5899067" y="3463053"/>
+          <a:ext cx="1443099" cy="354667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各カテゴリをクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>589807</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>589807</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>91044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13391407" y="5673634"/>
+          <a:ext cx="0" cy="696290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3494</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13414694" y="4840032"/>
+          <a:ext cx="857118" cy="292262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>count&gt;=10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11288486" y="3093720"/>
+          <a:ext cx="511628" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173183</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10536383" y="3159034"/>
+          <a:ext cx="1122218" cy="371302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>へをクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608610</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4875810" y="4436235"/>
+          <a:ext cx="1775361" cy="307760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ShowQuestionServlet.java</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1395</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5763491" y="4743995"/>
+          <a:ext cx="0" cy="698080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608610</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4875810" y="5442075"/>
+          <a:ext cx="1775361" cy="307759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>showQuestion.jsp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9895</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619495" y="4436235"/>
+          <a:ext cx="1775361" cy="307760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SetQuestion.java</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>540574</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>699</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3262003" y="4831235"/>
+          <a:ext cx="1527711" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9895</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>34052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619495" y="5810012"/>
+          <a:ext cx="1775361" cy="312113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YontakunDAO.java</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173180</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119741</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2611580" y="5058898"/>
+          <a:ext cx="1775361" cy="312114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Question.java</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フローチャート: 磁気ディスク 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="664028" y="6836228"/>
+          <a:ext cx="1589315" cy="1643743"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Yontakun</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>データベース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>question</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テーブル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5763491" y="5749834"/>
+          <a:ext cx="0" cy="550818"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="1606732"/>
+          <a:ext cx="1621972" cy="1979023"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4557"/>
+            <a:gd name="adj2" fmla="val 91804"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ArrayList&lt;Qestion&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>インスタンスからランダムで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>問取り出す→選択肢をランダムにする。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Question[10]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>インスタンスをセッションスコープに保存、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ShowQuestionServlet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に返す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>282039</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>77595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8816439" y="7865235"/>
+          <a:ext cx="1775361" cy="312114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>answer.jsp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>282039</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>55822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8816439" y="6837622"/>
+          <a:ext cx="1775361" cy="312114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AnswerServlet.java</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>102919</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>102919</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322119" y="6176554"/>
+          <a:ext cx="0" cy="546463"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>473033</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>473033</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1692233" y="6187439"/>
+          <a:ext cx="0" cy="535578"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510640</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2551711" y="8014606"/>
+          <a:ext cx="1252847" cy="952501"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38978"/>
+            <a:gd name="adj2" fmla="val -260125"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ArrayList&lt;Qestion&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>型でインスタンスを保存。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="174171" y="6220098"/>
+          <a:ext cx="936172" cy="1195251"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62541"/>
+            <a:gd name="adj2" fmla="val -44792"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データベースと接続。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文でデータの取り出しを依頼。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2449286" y="4781005"/>
+          <a:ext cx="468085" cy="232954"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2041071" y="5687786"/>
+          <a:ext cx="802822" cy="312963"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>91045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1741714" y="4861165"/>
+          <a:ext cx="1" cy="721029"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>233548</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>233548</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1452748" y="4846320"/>
+          <a:ext cx="0" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118754</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3166754" y="3553095"/>
+          <a:ext cx="1111332" cy="968832"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78478"/>
+            <a:gd name="adj2" fmla="val 85023"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Qestion[10]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>型でインスタンスを保存。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4813662"/>
+          <a:ext cx="1143000" cy="914401"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65988"/>
+            <a:gd name="adj2" fmla="val 2469"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YontakunDAO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>へ処理を依頼。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6158753" y="4912659"/>
+          <a:ext cx="2554941" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205839</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8740239" y="4802778"/>
+          <a:ext cx="1394362" cy="1266328"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40351"/>
+            <a:gd name="adj2" fmla="val 12181"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッションスコープ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>303811</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12495811" y="5226538"/>
+          <a:ext cx="1775361" cy="312113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ResultServlet.java</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>303811</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12495811" y="4203279"/>
+          <a:ext cx="1775361" cy="307759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result.jsp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>423554</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>370115</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8957954" y="883137"/>
+          <a:ext cx="1775361" cy="312114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TopServlet.java</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>423554</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>370115</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119741</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8957954" y="1986947"/>
+          <a:ext cx="1775361" cy="312114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>top.jsp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10798629" y="979714"/>
+          <a:ext cx="511628" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>92035</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>92035</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="0"/>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9845635" y="1195251"/>
+          <a:ext cx="0" cy="791696"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>328550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>328550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11301350" y="1011604"/>
+          <a:ext cx="0" cy="2022564"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>340659</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131324</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8001000" y="2143004"/>
+          <a:ext cx="874059" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>589807</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>589807</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13391407" y="4511040"/>
+          <a:ext cx="0" cy="696290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>589807</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>589807</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13391407" y="3396344"/>
+          <a:ext cx="0" cy="696289"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>340659</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>340660</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9484659" y="6203576"/>
+          <a:ext cx="1" cy="672353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15685</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>661146</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534832" y="4986013"/>
+          <a:ext cx="2012579" cy="897075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Question[10]  q10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>count</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パラメータ名もそれぞれ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"q10", </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"count"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21044</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4347210" y="1066800"/>
+          <a:ext cx="3598634" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21044</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4347210" y="6366796"/>
+          <a:ext cx="3598634" cy="2262853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>58468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5803</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11647170" y="1064308"/>
+          <a:ext cx="3598633" cy="2252884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34834</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>258417</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7959634" y="6996817"/>
+          <a:ext cx="833183" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>560120</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>560120</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>77595</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="0"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9704120" y="7149736"/>
+          <a:ext cx="0" cy="715499"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39757</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="8021292"/>
+          <a:ext cx="1030357" cy="249"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587189</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>153739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>502024</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>153739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6683189" y="4588579"/>
+          <a:ext cx="6010835" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8616</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>183778</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7323816" y="2993316"/>
+          <a:ext cx="1394362" cy="1495313"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -91234"/>
+            <a:gd name="adj2" fmla="val 42908"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①リクエストパラメータ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Category(String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をもとに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SetQuestion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>へ処理を渡す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SetQuestion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>から処理が返ってきたら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>showQuestion.jsp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>491196</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12683196" y="4591723"/>
+          <a:ext cx="1863" cy="585395"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>35861</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9170894" y="6239435"/>
+          <a:ext cx="8967" cy="708211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10219765" y="5380617"/>
+          <a:ext cx="2214282" cy="8967"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>516964</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>439271</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9660964" y="6424849"/>
+          <a:ext cx="531907" cy="294079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>seikai</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>98263</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>273425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14119063" y="3071309"/>
+          <a:ext cx="1394362" cy="1059628"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76447"/>
+            <a:gd name="adj2" fmla="val 47075"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>seikai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以上なら合格、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未満なら不合格表示。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コメントも変える。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>272436</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11854836" y="4840032"/>
+          <a:ext cx="812294" cy="274332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>count&lt;10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>268594</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>443756</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6974194" y="5800165"/>
+          <a:ext cx="1394362" cy="860611"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -77090"/>
+            <a:gd name="adj2" fmla="val -42309"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択肢ごとにリクエストパラメータ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ans=a,b,c,d</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を設定する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403065</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>578227</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8937465" y="2762923"/>
+          <a:ext cx="1394362" cy="1227269"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -582"/>
+            <a:gd name="adj2" fmla="val -78743"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択肢ごとにリクエストパラメータ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>java, doc, vba, db</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>web,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> server, free</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を設定する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456210</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177639" y="5946322"/>
+          <a:ext cx="1606633" cy="2204357"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2587"/>
+            <a:gd name="adj2" fmla="val -63232"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>int        id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>category</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>text</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>String  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>select0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>String  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>String  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>String  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>String comment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> ans="a"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※JavaBeans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>339860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13610</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76081</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCCA1EB-7DDC-106F-C8F8-785A65BE34FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5782717" y="3837214"/>
+          <a:ext cx="1034464" cy="307403"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int  cate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -9045,7 +14965,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フレーム 1"/>
+        <xdr:cNvPr id="2" name="フレーム 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9117,7 +15043,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フレーム 2"/>
+        <xdr:cNvPr id="3" name="フレーム 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9189,7 +15121,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvPr id="4" name="フレーム 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9282,7 +15220,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フレーム 4"/>
+        <xdr:cNvPr id="5" name="フレーム 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9354,7 +15298,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フレーム 5"/>
+        <xdr:cNvPr id="6" name="フレーム 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9426,7 +15376,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フレーム 6"/>
+        <xdr:cNvPr id="7" name="フレーム 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9511,7 +15467,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フレーム 7"/>
+        <xdr:cNvPr id="8" name="フレーム 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9588,7 +15550,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フレーム 8"/>
+        <xdr:cNvPr id="9" name="フレーム 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9668,7 +15636,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9719,7 +15693,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9770,7 +15750,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9821,7 +15807,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="カギ線コネクタ 12"/>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9874,7 +15866,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9927,7 +15925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="円/楕円 14"/>
+        <xdr:cNvPr id="15" name="円/楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9987,7 +15991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="円/楕円 15"/>
+        <xdr:cNvPr id="16" name="円/楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10047,7 +16057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="円/楕円 16"/>
+        <xdr:cNvPr id="17" name="円/楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10107,7 +16123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10165,7 +16187,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10212,7 +16240,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10263,7 +16297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="フレーム 20"/>
+        <xdr:cNvPr id="21" name="フレーム 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10340,7 +16380,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="フレーム 21"/>
+        <xdr:cNvPr id="22" name="フレーム 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10412,7 +16458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="フレーム 22"/>
+        <xdr:cNvPr id="23" name="フレーム 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10484,7 +16536,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="フレーム 23"/>
+        <xdr:cNvPr id="24" name="フレーム 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10556,7 +16614,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10607,7 +16671,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10658,7 +16728,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10709,7 +16785,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10748,7 +16830,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10765,7 +16847,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フレーム 1"/>
+        <xdr:cNvPr id="2" name="フレーム 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10837,7 +16925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フレーム 2"/>
+        <xdr:cNvPr id="3" name="フレーム 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10909,7 +17003,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvPr id="4" name="フレーム 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11002,7 +17102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フレーム 4"/>
+        <xdr:cNvPr id="5" name="フレーム 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11074,7 +17180,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フレーム 5"/>
+        <xdr:cNvPr id="6" name="フレーム 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11146,7 +17258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フレーム 6"/>
+        <xdr:cNvPr id="7" name="フレーム 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11231,7 +17349,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フレーム 7"/>
+        <xdr:cNvPr id="8" name="フレーム 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11308,7 +17432,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フレーム 8"/>
+        <xdr:cNvPr id="9" name="フレーム 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11388,7 +17518,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11439,7 +17575,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11490,7 +17632,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11541,7 +17689,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="カギ線コネクタ 12"/>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11594,7 +17748,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11647,7 +17807,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="円/楕円 14"/>
+        <xdr:cNvPr id="15" name="円/楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11707,7 +17873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="円/楕円 15"/>
+        <xdr:cNvPr id="16" name="円/楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11767,7 +17939,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="円/楕円 16"/>
+        <xdr:cNvPr id="17" name="円/楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11827,7 +18005,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11885,7 +18069,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11936,7 +18126,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="フレーム 20"/>
+        <xdr:cNvPr id="21" name="フレーム 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12013,7 +18209,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="フレーム 21"/>
+        <xdr:cNvPr id="22" name="フレーム 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12085,7 +18287,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="フレーム 22"/>
+        <xdr:cNvPr id="23" name="フレーム 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12157,7 +18365,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="フレーム 23"/>
+        <xdr:cNvPr id="24" name="フレーム 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12229,7 +18443,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12280,7 +18500,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12331,7 +18557,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12382,7 +18614,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12722,7 +18960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12732,10 +18970,10 @@
       <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="23" ht="19.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="13.15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12745,21 +18983,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="W26:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="26" ht="19.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="13.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="26" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="13.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="23:23" x14ac:dyDescent="0.15">
       <c r="W37" t="s">
         <v>48</v>
       </c>
@@ -12773,21 +19011,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D26:W37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="26" spans="4:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="4:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="4:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="D32" s="31"/>
+    </row>
+    <row r="37" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B3:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="114.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H9" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H10" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H11" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H13" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H15" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:Q62"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -12796,7 +19150,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="E5" s="13" t="s">
         <v>47</v>
@@ -12805,11 +19159,11 @@
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12818,7 +19172,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12829,7 +19183,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12838,7 +19192,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -12847,7 +19201,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -12856,7 +19210,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -12865,7 +19219,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -12874,7 +19228,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -12883,7 +19237,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -12892,7 +19246,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -12901,7 +19255,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -12910,7 +19264,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -12919,7 +19273,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -12928,7 +19282,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -12937,7 +19291,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -12946,12 +19300,12 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="24" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -12967,7 +19321,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -12983,7 +19337,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="2:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -12993,15 +19347,15 @@
       <c r="H27" s="9"/>
       <c r="K27" s="7"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="2:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -13013,13 +19367,13 @@
       <c r="H28" s="9"/>
       <c r="K28" s="7"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -13035,7 +19389,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="9"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -13045,15 +19399,15 @@
       <c r="H30" s="9"/>
       <c r="K30" s="7"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="33" t="s">
+      <c r="M30" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -13063,13 +19417,13 @@
       <c r="H31" s="9"/>
       <c r="K31" s="7"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -13085,7 +19439,7 @@
       <c r="P32" s="21"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -13104,7 +19458,7 @@
       <c r="P33" s="20"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -13122,7 +19476,7 @@
       <c r="P34" s="23"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -13138,7 +19492,7 @@
       <c r="P35" s="23"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -13154,7 +19508,7 @@
       <c r="P36" s="23"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -13170,7 +19524,7 @@
       <c r="P37" s="23"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -13186,7 +19540,7 @@
       <c r="P38" s="23"/>
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -13202,7 +19556,7 @@
       <c r="P39" s="23"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -13220,7 +19574,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -13236,7 +19590,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="12"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D44" s="26" t="s">
         <v>43</v>
       </c>
@@ -13244,8 +19598,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -13261,7 +19615,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B47" s="17" t="s">
         <v>42</v>
       </c>
@@ -13285,7 +19639,7 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -13301,7 +19655,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
         <v>34</v>
@@ -13321,7 +19675,7 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -13337,62 +19691,62 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="9"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="9"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B52" s="7"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="9"/>
       <c r="J52" s="26" t="s">
         <v>40</v>
       </c>
       <c r="K52" s="7"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B53" s="7"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="9"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B54" s="7"/>
       <c r="C54" s="8" t="s">
         <v>28</v>
@@ -13410,7 +19764,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="9"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B55" s="7"/>
       <c r="C55" s="8" t="s">
         <v>29</v>
@@ -13430,7 +19784,7 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="9"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -13446,7 +19800,7 @@
       <c r="P56" s="18"/>
       <c r="Q56" s="9"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -13462,7 +19816,7 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="9"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -13478,7 +19832,7 @@
       <c r="P58" s="18"/>
       <c r="Q58" s="9"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -13494,7 +19848,7 @@
       <c r="P59" s="18"/>
       <c r="Q59" s="9"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B60" s="7"/>
       <c r="C60" s="8" t="s">
         <v>32</v>
@@ -13518,7 +19872,7 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="9"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -13536,7 +19890,7 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="9"/>
     </row>
-    <row r="62" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -13566,8 +19920,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13577,18 +19931,18 @@
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="70.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="70.375" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -13597,7 +19951,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="E5" s="13" t="s">
         <v>20</v>
@@ -13606,11 +19960,11 @@
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -13619,7 +19973,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -13630,7 +19984,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -13639,7 +19993,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -13648,7 +20002,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -13657,7 +20011,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -13666,7 +20020,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -13675,7 +20029,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -13684,7 +20038,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -13693,7 +20047,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -13702,7 +20056,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -13711,7 +20065,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -13720,7 +20074,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -13729,7 +20083,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -13738,7 +20092,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:17" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" ht="276" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -13747,12 +20101,12 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="24" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -13768,7 +20122,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -13784,7 +20138,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="2:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -13794,15 +20148,15 @@
       <c r="H27" s="9"/>
       <c r="K27" s="7"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="2:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -13814,13 +20168,13 @@
       <c r="H28" s="9"/>
       <c r="K28" s="7"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -13836,7 +20190,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="9"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -13846,15 +20200,15 @@
       <c r="H30" s="9"/>
       <c r="K30" s="7"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="33" t="s">
+      <c r="M30" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -13864,13 +20218,13 @@
       <c r="H31" s="9"/>
       <c r="K31" s="7"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -13886,7 +20240,7 @@
       <c r="P32" s="21"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -13902,7 +20256,7 @@
       <c r="P33" s="20"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -13920,7 +20274,7 @@
       <c r="P34" s="23"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -13936,7 +20290,7 @@
       <c r="P35" s="23"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -13952,7 +20306,7 @@
       <c r="P36" s="23"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -13968,7 +20322,7 @@
       <c r="P37" s="23"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -13984,7 +20338,7 @@
       <c r="P38" s="23"/>
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -14000,7 +20354,7 @@
       <c r="P39" s="23"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -14018,7 +20372,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -14034,14 +20388,14 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="12"/>
     </row>
-    <row r="44" spans="2:17" ht="307.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" ht="307.89999999999998" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="26"/>
       <c r="O44" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -14057,7 +20411,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B47" s="17" t="s">
         <v>24</v>
       </c>
@@ -14081,7 +20435,7 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -14097,7 +20451,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
         <v>34</v>
@@ -14117,7 +20471,7 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -14133,62 +20487,62 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="9"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="9"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B52" s="7"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="9"/>
       <c r="J52" s="26" t="s">
         <v>40</v>
       </c>
       <c r="K52" s="7"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B53" s="7"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="9"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B54" s="7"/>
       <c r="C54" s="8" t="s">
         <v>28</v>
@@ -14206,7 +20560,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="9"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B55" s="7"/>
       <c r="C55" s="8" t="s">
         <v>29</v>
@@ -14226,7 +20580,7 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="9"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -14242,7 +20596,7 @@
       <c r="P56" s="18"/>
       <c r="Q56" s="9"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -14258,7 +20612,7 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="9"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -14274,7 +20628,7 @@
       <c r="P58" s="18"/>
       <c r="Q58" s="9"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -14290,7 +20644,7 @@
       <c r="P59" s="18"/>
       <c r="Q59" s="9"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B60" s="7"/>
       <c r="C60" s="8" t="s">
         <v>32</v>
@@ -14314,7 +20668,7 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="9"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -14332,7 +20686,7 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="9"/>
     </row>
-    <row r="62" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -14357,27 +20711,27 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="19" width="4" style="2" customWidth="1"/>
     <col min="20" max="20" width="7" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="2"/>
+    <col min="21" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -14398,7 +20752,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -14425,7 +20779,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -14446,7 +20800,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -14467,7 +20821,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -14490,7 +20844,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -14511,7 +20865,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -14536,7 +20890,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
         <v>1</v>
@@ -14561,7 +20915,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
         <v>2</v>
@@ -14586,7 +20940,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
         <v>3</v>
@@ -14611,7 +20965,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -14632,7 +20986,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -14657,7 +21011,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -14678,7 +21032,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -14701,7 +21055,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -14722,7 +21076,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -14745,7 +21099,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>17</v>
@@ -14768,7 +21122,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -14791,7 +21145,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -14812,7 +21166,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>7</v>
@@ -14835,7 +21189,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
